--- a/ITEST/itest.webstudio/openl-repository/workspace/DEFAULT/Sample/Main.xlsx
+++ b/ITEST/itest.webstudio/openl-repository/workspace/DEFAULT/Sample/Main.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24131"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\home\user-workspace\admin\Sample\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7E7406D1-3559-4407-9A85-0877E067F601}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="285" yWindow="105" windowWidth="16140" windowHeight="9210"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Rules" sheetId="4" r:id="rId1"/>
@@ -14,12 +20,12 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Stanislav Shor</author>
   </authors>
   <commentList>
-    <comment ref="B3" authorId="0">
+    <comment ref="B3" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -32,7 +38,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B4" authorId="0">
+    <comment ref="B4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -46,7 +52,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C4" authorId="0">
+    <comment ref="C4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000003000000}">
       <text>
         <r>
           <rPr>
@@ -59,7 +65,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E4" authorId="0">
+    <comment ref="E4" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000004000000}">
       <text>
         <r>
           <rPr>
@@ -72,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C5" authorId="0">
+    <comment ref="C5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000005000000}">
       <text>
         <r>
           <rPr>
@@ -155,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E5" authorId="0">
+    <comment ref="E5" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000006000000}">
       <text>
         <r>
           <rPr>
@@ -187,7 +193,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B20" authorId="0">
+    <comment ref="B20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000007000000}">
       <text>
         <r>
           <rPr>
@@ -201,7 +207,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C20" authorId="0">
+    <comment ref="C20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000008000000}">
       <text>
         <r>
           <rPr>
@@ -214,7 +220,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C21" authorId="0">
+    <comment ref="E20" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000A000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Return column header. Must start with "RET".  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000009000000}">
       <text>
         <r>
           <rPr>
@@ -297,7 +316,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E20" authorId="0">
+    <comment ref="E21" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000B000000}">
       <text>
         <r>
           <rPr>
@@ -306,43 +325,30 @@
             <color indexed="81"/>
             <rFont val="Tahoma"/>
           </rPr>
-          <t xml:space="preserve">Return column header. Must start with "RET".  </t>
+          <t xml:space="preserve">This is return expression performed for the first row where all conditions have been satisfied. The variable </t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Courier New"/>
+            <family val="3"/>
+          </rPr>
+          <t>greeting</t>
+        </r>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve"> is substittuted with a cell value from the rule row</t>
         </r>
       </text>
     </comment>
-    <comment ref="E21" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">This is return expression performed for the first row where all conditions have been satisfied. The variable </t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Courier New"/>
-            <family val="3"/>
-          </rPr>
-          <t>greeting</t>
-        </r>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve"> is substittuted with a cell value from the rule row</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="B31" authorId="0">
+    <comment ref="B31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000C000000}">
       <text>
         <r>
           <rPr>
@@ -356,7 +362,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C31" authorId="0">
+    <comment ref="C31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000D000000}">
       <text>
         <r>
           <rPr>
@@ -369,7 +375,20 @@
         </r>
       </text>
     </comment>
-    <comment ref="C32" authorId="0">
+    <comment ref="E31" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000F000000}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+          </rPr>
+          <t xml:space="preserve">Return column header. Must start with "RET".  </t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="C32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-00000E000000}">
       <text>
         <r>
           <rPr>
@@ -452,20 +471,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E31" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-          </rPr>
-          <t xml:space="preserve">Return column header. Must start with "RET".  </t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="E32" authorId="0">
+    <comment ref="E32" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000010000000}">
       <text>
         <r>
           <rPr>
@@ -502,7 +508,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="37">
   <si>
     <t>Rule</t>
   </si>
@@ -570,9 +576,6 @@
     <t>Rules String Hello (Integer hour)</t>
   </si>
   <si>
-    <t>Rules String2 Hello (Integer hour)</t>
-  </si>
-  <si>
     <t>Test Hello HelloTest</t>
   </si>
   <si>
@@ -606,17 +609,22 @@
     <t>AZ</t>
   </si>
   <si>
-    <t>Test Hello HelloTest2</t>
-  </si>
-  <si>
     <t>Test Hello HelloTest3</t>
+  </si>
+  <si>
+    <t>Environment</t>
+  </si>
+  <si>
+    <t>dependency</t>
+  </si>
+  <si>
+    <t>non-existing-moule</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
@@ -692,7 +700,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="20">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -914,28 +922,25 @@
       <diagonal/>
     </border>
     <border>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
-    </border>
-    <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -965,16 +970,17 @@
     <xf numFmtId="0" fontId="0" fillId="3" borderId="14" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="15" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="13" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="true"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -982,12 +988,11 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1337,36 +1342,38 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E48"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="B3:H48"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScale="125" workbookViewId="0">
+      <selection activeCell="G10" sqref="G10"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" customWidth="true" style="1" width="2.85546875" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="1" width="5.42578125" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="1" width="18.7109375" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="1" width="19.0" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="1" width="24.28515625" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="1" width="25.85546875" collapsed="true"/>
-    <col min="7" max="7" customWidth="true" style="1" width="11.42578125" collapsed="true"/>
-    <col min="8" max="8" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="1" width="14.28515625" collapsed="true"/>
-    <col min="10" max="10" customWidth="true" style="1" width="12.85546875" collapsed="true"/>
-    <col min="11" max="11" customWidth="true" style="1" width="13.0" collapsed="true"/>
-    <col min="12" max="16384" style="1" width="9.140625" collapsed="true"/>
+    <col min="1" max="1" width="2.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="2" max="2" width="5.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.6640625" style="1" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="19" style="1" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="24.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="6" max="6" width="25.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="11.44140625" style="1" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="14.33203125" style="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="12.88671875" style="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="11" width="13" style="1" customWidth="1" collapsed="1"/>
+    <col min="12" max="16384" width="9.109375" style="1" collapsed="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="B3" s="27" t="s">
+    <row r="3" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B3" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="27"/>
-      <c r="D3" s="27"/>
-      <c r="E3" s="27"/>
-    </row>
-    <row r="4" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+    </row>
+    <row r="4" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
         <v>0</v>
       </c>
@@ -1379,8 +1386,12 @@
       <c r="E4" s="2" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="G4" t="s">
+        <v>34</v>
+      </c>
+      <c r="H4"/>
+    </row>
+    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B5" s="5"/>
       <c r="C5" s="6" t="s">
         <v>3</v>
@@ -1391,8 +1402,14 @@
       <c r="E5" s="5" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="6" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="G5" t="s">
+        <v>35</v>
+      </c>
+      <c r="H5" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="6" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B6" s="8"/>
       <c r="C6" s="9" t="s">
         <v>19</v>
@@ -1404,7 +1421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B7" s="11" t="s">
         <v>0</v>
       </c>
@@ -1418,7 +1435,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B8" s="15" t="s">
         <v>9</v>
       </c>
@@ -1432,7 +1449,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="9" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B9" s="19" t="s">
         <v>11</v>
       </c>
@@ -1446,7 +1463,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="10" spans="2:5" x14ac:dyDescent="0.2">
+    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
       <c r="B10" s="19" t="s">
         <v>13</v>
       </c>
@@ -1460,7 +1477,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="2:5" ht="13.5" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="23" t="s">
         <v>15</v>
       </c>
@@ -1474,328 +1491,324 @@
         <v>16</v>
       </c>
     </row>
-    <row r="13">
-      <c r="B13" s="28" t="s">
+    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B13" s="32" t="s">
+        <v>22</v>
+      </c>
+      <c r="C13" s="32"/>
+    </row>
+    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B14" s="27" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="28"/>
-    </row>
-    <row r="14">
-      <c r="B14" t="s" s="28">
+      <c r="C14" s="27" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B15" s="27" t="s">
         <v>24</v>
       </c>
-      <c r="C14" t="s" s="28">
+      <c r="C15" s="27" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="15">
-      <c r="B15" t="s" s="28">
+    <row r="16" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B16" s="27" t="s">
+        <v>27</v>
+      </c>
+      <c r="C16" s="27" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B18" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
+      <c r="E18" s="31"/>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B19" s="28" t="s">
+        <v>29</v>
+      </c>
+      <c r="C19" s="28" t="s">
+        <v>30</v>
+      </c>
+      <c r="D19" s="28" t="s">
+        <v>31</v>
+      </c>
+      <c r="E19" s="28"/>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B20" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D20" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E20" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B21" s="5"/>
+      <c r="C21" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D21" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E21" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B22" s="8"/>
+      <c r="C22" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D22" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B23" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C23" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D23" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E23" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B24" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" s="16">
+        <v>0</v>
+      </c>
+      <c r="D24" s="17">
+        <v>11</v>
+      </c>
+      <c r="E24" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B25" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C25" s="20">
+        <v>12</v>
+      </c>
+      <c r="D25" s="21">
+        <v>17</v>
+      </c>
+      <c r="E25" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B26" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C26" s="20">
+        <v>18</v>
+      </c>
+      <c r="D26" s="21">
+        <v>21</v>
+      </c>
+      <c r="E26" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B27" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C27" s="24">
+        <v>22</v>
+      </c>
+      <c r="D27" s="25">
+        <v>23</v>
+      </c>
+      <c r="E27" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B29" s="31" t="s">
+        <v>21</v>
+      </c>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+    </row>
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B30" s="29" t="s">
+        <v>29</v>
+      </c>
+      <c r="C30" s="29" t="s">
+        <v>30</v>
+      </c>
+      <c r="D30" s="29" t="s">
+        <v>32</v>
+      </c>
+      <c r="E30" s="29"/>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B31" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D31" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="E31" s="2" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B32" s="5"/>
+      <c r="C32" s="6" t="s">
+        <v>3</v>
+      </c>
+      <c r="D32" s="7" t="s">
+        <v>4</v>
+      </c>
+      <c r="E32" s="5" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B33" s="8"/>
+      <c r="C33" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="D33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="E33" s="8" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="11" t="s">
+        <v>0</v>
+      </c>
+      <c r="C34" s="12" t="s">
+        <v>6</v>
+      </c>
+      <c r="D34" s="13" t="s">
+        <v>7</v>
+      </c>
+      <c r="E34" s="14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" s="16">
+        <v>0</v>
+      </c>
+      <c r="D35" s="17">
+        <v>11</v>
+      </c>
+      <c r="E35" s="18" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="19" t="s">
+        <v>11</v>
+      </c>
+      <c r="C36" s="20">
+        <v>12</v>
+      </c>
+      <c r="D36" s="21">
+        <v>17</v>
+      </c>
+      <c r="E36" s="22" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C37" s="20">
+        <v>18</v>
+      </c>
+      <c r="D37" s="21">
+        <v>21</v>
+      </c>
+      <c r="E37" s="22" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="23" t="s">
+        <v>15</v>
+      </c>
+      <c r="C38" s="24">
+        <v>22</v>
+      </c>
+      <c r="D38" s="25">
+        <v>23</v>
+      </c>
+      <c r="E38" s="26" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="32" t="s">
+        <v>33</v>
+      </c>
+      <c r="C45" s="32"/>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="30" t="s">
+        <v>23</v>
+      </c>
+      <c r="C46" s="30" t="s">
         <v>25</v>
       </c>
-      <c r="C15" t="s" s="28">
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C47" s="30" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="30" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="28" t="s">
-        <v>28</v>
-      </c>
-      <c r="C16" s="28" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C18" s="27"/>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-    </row>
-    <row r="19">
-      <c r="B19" t="s" s="29">
-        <v>30</v>
-      </c>
-      <c r="C19" t="s" s="29">
-        <v>31</v>
-      </c>
-      <c r="D19" t="s" s="29">
-        <v>32</v>
-      </c>
-      <c r="E19" s="29"/>
-    </row>
-    <row r="20">
-      <c r="B20" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="C20" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D20" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E20" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="5"/>
-      <c r="C21" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="D21" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E21" t="s" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="8"/>
-      <c r="C22" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D22" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E22" t="s" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="C23" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="D23" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E23" t="s" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="C24" t="n" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D24" t="n" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="E24" t="s" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="C25" t="n" s="20">
-        <v>12.0</v>
-      </c>
-      <c r="D25" t="n" s="21">
-        <v>17.0</v>
-      </c>
-      <c r="E25" t="s" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="C26" t="n" s="20">
-        <v>18.0</v>
-      </c>
-      <c r="D26" t="n" s="21">
-        <v>21.0</v>
-      </c>
-      <c r="E26" t="s" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="C27" t="n" s="24">
-        <v>22.0</v>
-      </c>
-      <c r="D27" t="n" s="25">
-        <v>23.0</v>
-      </c>
-      <c r="E27" t="s" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="27" t="s">
-        <v>21</v>
-      </c>
-      <c r="C29" s="27"/>
-      <c r="D29" s="27"/>
-      <c r="E29" s="27"/>
-    </row>
-    <row r="30">
-      <c r="B30" t="s" s="30">
-        <v>30</v>
-      </c>
-      <c r="C30" t="s" s="30">
-        <v>31</v>
-      </c>
-      <c r="D30" t="s" s="30">
-        <v>33</v>
-      </c>
-      <c r="E30" s="30"/>
-    </row>
-    <row r="31">
-      <c r="B31" t="s" s="2">
-        <v>0</v>
-      </c>
-      <c r="C31" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="D31" t="s" s="4">
-        <v>2</v>
-      </c>
-      <c r="E31" t="s" s="2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="5"/>
-      <c r="C32" t="s" s="6">
-        <v>3</v>
-      </c>
-      <c r="D32" t="s" s="7">
-        <v>4</v>
-      </c>
-      <c r="E32" t="s" s="5">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="8"/>
-      <c r="C33" t="s" s="9">
-        <v>19</v>
-      </c>
-      <c r="D33" t="s" s="10">
-        <v>20</v>
-      </c>
-      <c r="E33" t="s" s="8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" t="s" s="11">
-        <v>0</v>
-      </c>
-      <c r="C34" t="s" s="12">
-        <v>6</v>
-      </c>
-      <c r="D34" t="s" s="13">
-        <v>7</v>
-      </c>
-      <c r="E34" t="s" s="14">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="B35" t="s" s="15">
-        <v>9</v>
-      </c>
-      <c r="C35" t="n" s="16">
-        <v>0.0</v>
-      </c>
-      <c r="D35" t="n" s="17">
-        <v>11.0</v>
-      </c>
-      <c r="E35" t="s" s="18">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="B36" t="s" s="19">
-        <v>11</v>
-      </c>
-      <c r="C36" t="n" s="20">
-        <v>12.0</v>
-      </c>
-      <c r="D36" t="n" s="21">
-        <v>17.0</v>
-      </c>
-      <c r="E36" t="s" s="22">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="37">
-      <c r="B37" t="s" s="19">
-        <v>13</v>
-      </c>
-      <c r="C37" t="n" s="20">
-        <v>18.0</v>
-      </c>
-      <c r="D37" t="n" s="21">
-        <v>21.0</v>
-      </c>
-      <c r="E37" t="s" s="22">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="38">
-      <c r="B38" t="s" s="23">
-        <v>15</v>
-      </c>
-      <c r="C38" t="n" s="24">
-        <v>22.0</v>
-      </c>
-      <c r="D38" t="n" s="25">
-        <v>23.0</v>
-      </c>
-      <c r="E38" t="s" s="26">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="40"/>
-    <row r="41"/>
-    <row r="42"/>
-    <row r="43"/>
-    <row r="45">
-      <c r="B45" s="31" t="s">
-        <v>35</v>
-      </c>
-      <c r="C45" s="31"/>
-    </row>
-    <row r="46">
-      <c r="B46" t="s" s="31">
-        <v>24</v>
-      </c>
-      <c r="C46" t="s" s="31">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="B47" t="s" s="31">
-        <v>25</v>
-      </c>
-      <c r="C47" t="s" s="31">
+      <c r="C48" s="30" t="s">
         <v>27</v>
       </c>
     </row>
-    <row r="48">
-      <c r="B48" s="31" t="s">
-        <v>28</v>
-      </c>
-      <c r="C48" s="31" t="s">
-        <v>28</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="6">
+  <mergeCells count="5">
     <mergeCell ref="B3:E3"/>
     <mergeCell ref="B13:C13"/>
     <mergeCell ref="B18:E18"/>
@@ -1806,7 +1819,6 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
-  <drawing r:id="rId4"/>
   <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>